--- a/P0051/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0051/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0051/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="758" documentId="13_ncr:1_{C31E51D4-4275-4FFB-AAA0-8865A2F36347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C6E161-87E9-45B6-94C5-74AAE22CEAE5}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="13_ncr:1_{C31E51D4-4275-4FFB-AAA0-8865A2F36347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CBC9F4C-15CE-4BE9-A0D0-20696651B0F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1879,8 +1879,8 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1890,7 +1890,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -4176,6 +4176,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -4319,19 +4328,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>